--- a/qieman/康力泉/04_康力泉_且慢.xlsx
+++ b/qieman/康力泉/04_康力泉_且慢.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="248">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +133,9 @@
     <t>2020-02-26</t>
   </si>
   <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
     <t>2020-03-09</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>2020-03-19</t>
   </si>
   <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
     <t>2020-04-30</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>2020-06-24</t>
   </si>
   <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
     <t>2020-07-16</t>
   </si>
   <si>
@@ -238,6 +247,9 @@
     <t>13:07:10</t>
   </si>
   <si>
+    <t>14:59:00</t>
+  </si>
+  <si>
     <t>11:59:28</t>
   </si>
   <si>
@@ -421,12 +433,21 @@
     <t>买入</t>
   </si>
   <si>
+    <t>分红</t>
+  </si>
+  <si>
     <t>卖出</t>
   </si>
   <si>
     <t>康力泉_且慢</t>
   </si>
   <si>
+    <t>康力泉_且慢_150份</t>
+  </si>
+  <si>
+    <t>康力泉_且慢_S定投</t>
+  </si>
+  <si>
     <t>海外成熟</t>
   </si>
   <si>
@@ -658,6 +679,12 @@
     <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020022601680553</t>
   </si>
   <si>
+    <t>长赢指数投资计划-150份_自补分红</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_自补分红</t>
+  </si>
+  <si>
     <t>长赢指数投资计划-S定投_赎回_orderid=2020030901192939</t>
   </si>
   <si>
@@ -710,6 +737,12 @@
   </si>
   <si>
     <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031901541507</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_转托管</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_转托管</t>
   </si>
   <si>
     <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020043000794255</t>
@@ -1082,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,16 +1188,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>1.047</v>
@@ -1185,22 +1218,22 @@
         <v>1000</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R2">
         <v>321</v>
       </c>
       <c r="S2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1214,16 +1247,16 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>1.0523</v>
@@ -1244,22 +1277,22 @@
         <v>1000</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="R3">
         <v>611</v>
       </c>
       <c r="S3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1273,16 +1306,16 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H4">
         <v>0.8139999999999999</v>
@@ -1303,22 +1336,22 @@
         <v>1000</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="R4">
         <v>144</v>
       </c>
       <c r="S4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1332,16 +1365,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>0.9429999999999999</v>
@@ -1362,22 +1395,22 @@
         <v>1000</v>
       </c>
       <c r="N5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="R5">
         <v>111</v>
       </c>
       <c r="S5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1391,16 +1424,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>1.8761</v>
@@ -1421,22 +1454,22 @@
         <v>1000</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q6" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R6">
         <v>121</v>
       </c>
       <c r="S6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1450,16 +1483,16 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>0.453</v>
@@ -1480,22 +1513,22 @@
         <v>1000</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R7">
         <v>613</v>
       </c>
       <c r="S7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1509,16 +1542,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H8">
         <v>1.1296</v>
@@ -1539,22 +1572,22 @@
         <v>1000</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="R8">
         <v>611</v>
       </c>
       <c r="S8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1568,16 +1601,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H9">
         <v>1.9407</v>
@@ -1598,22 +1631,22 @@
         <v>1000</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R9">
         <v>121</v>
       </c>
       <c r="S9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1627,16 +1660,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H10">
         <v>1.11</v>
@@ -1657,22 +1690,22 @@
         <v>1000</v>
       </c>
       <c r="N10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="R10">
         <v>221</v>
       </c>
       <c r="S10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1686,16 +1719,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H11">
         <v>1.076</v>
@@ -1716,22 +1749,22 @@
         <v>1000</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q11" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="R11">
         <v>131</v>
       </c>
       <c r="S11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1745,16 +1778,16 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>0.376</v>
@@ -1775,22 +1808,22 @@
         <v>993.83</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R12">
         <v>613</v>
       </c>
       <c r="S12" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1804,16 +1837,16 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H13">
         <v>0.5482</v>
@@ -1834,22 +1867,22 @@
         <v>5336</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="R13">
         <v>143</v>
       </c>
       <c r="S13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1863,16 +1896,16 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H14">
         <v>0.732</v>
@@ -1893,22 +1926,22 @@
         <v>3335</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q14" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="R14">
         <v>144</v>
       </c>
       <c r="S14" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1922,16 +1955,16 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H15">
         <v>1.921</v>
@@ -1952,22 +1985,22 @@
         <v>7337</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R15">
         <v>121</v>
       </c>
       <c r="S15" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1981,16 +2014,16 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H16">
         <v>0.543</v>
@@ -2011,22 +2044,22 @@
         <v>2668</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q16" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R16">
         <v>121</v>
       </c>
       <c r="S16" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2040,16 +2073,16 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H17">
         <v>0.9048</v>
@@ -2070,22 +2103,22 @@
         <v>667</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="R17">
         <v>124</v>
       </c>
       <c r="S17" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2099,16 +2132,16 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <v>0.539</v>
@@ -2129,22 +2162,22 @@
         <v>1334</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q18" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R18">
         <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2158,16 +2191,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H19">
         <v>0.9424</v>
@@ -2188,22 +2221,22 @@
         <v>4002</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q19" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R19">
         <v>141</v>
       </c>
       <c r="S19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2217,16 +2250,16 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H20">
         <v>1.089</v>
@@ -2247,22 +2280,22 @@
         <v>667</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R20">
         <v>321</v>
       </c>
       <c r="S20" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2276,16 +2309,16 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>0.378</v>
@@ -2306,22 +2339,22 @@
         <v>993.83</v>
       </c>
       <c r="N21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O21" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q21" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R21">
         <v>613</v>
       </c>
       <c r="S21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2335,16 +2368,16 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H22">
         <v>1.155</v>
@@ -2365,22 +2398,22 @@
         <v>667</v>
       </c>
       <c r="N22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q22" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="R22">
         <v>221</v>
       </c>
       <c r="S22" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2394,16 +2427,16 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23">
         <v>1.6629</v>
@@ -2424,22 +2457,22 @@
         <v>667</v>
       </c>
       <c r="N23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q23" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="R23">
         <v>124</v>
       </c>
       <c r="S23" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2453,16 +2486,16 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H24">
         <v>1.087</v>
@@ -2483,22 +2516,22 @@
         <v>2668</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q24" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="R24">
         <v>131</v>
       </c>
       <c r="S24" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2512,16 +2545,16 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H25">
         <v>0.9917</v>
@@ -2542,22 +2575,22 @@
         <v>93.38</v>
       </c>
       <c r="N25" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O25" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q25" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="R25">
         <v>145</v>
       </c>
       <c r="S25" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2571,16 +2604,16 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H26">
         <v>0.375</v>
@@ -2601,22 +2634,22 @@
         <v>13.34</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q26" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R26">
         <v>613</v>
       </c>
       <c r="S26" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2630,16 +2663,16 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H27">
         <v>1.101</v>
@@ -2660,22 +2693,22 @@
         <v>667</v>
       </c>
       <c r="N27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q27" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="R27">
         <v>131</v>
       </c>
       <c r="S27" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2689,16 +2722,16 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H28">
         <v>0.9484</v>
@@ -2719,22 +2752,22 @@
         <v>667</v>
       </c>
       <c r="N28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q28" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R28">
         <v>141</v>
       </c>
       <c r="S28" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2748,16 +2781,16 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H29">
         <v>0.9977</v>
@@ -2778,22 +2811,22 @@
         <v>93.38</v>
       </c>
       <c r="N29" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q29" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="R29">
         <v>145</v>
       </c>
       <c r="S29" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2807,16 +2840,16 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H30">
         <v>0.9925</v>
@@ -2837,22 +2870,22 @@
         <v>93.38</v>
       </c>
       <c r="N30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q30" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="R30">
         <v>145</v>
       </c>
       <c r="S30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2866,16 +2899,16 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H31">
         <v>1.4493</v>
@@ -2896,22 +2929,22 @@
         <v>667</v>
       </c>
       <c r="N31" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q31" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="R31">
         <v>211</v>
       </c>
       <c r="S31" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2925,16 +2958,16 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H32">
         <v>1.4496</v>
@@ -2955,22 +2988,22 @@
         <v>1000</v>
       </c>
       <c r="N32" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O32" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q32" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="R32">
         <v>211</v>
       </c>
       <c r="S32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2984,16 +3017,16 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H33">
         <v>0.391</v>
@@ -3014,22 +3047,22 @@
         <v>1000</v>
       </c>
       <c r="N33" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O33" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q33" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R33">
         <v>613</v>
       </c>
       <c r="S33" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3043,16 +3076,16 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H34">
         <v>0.551</v>
@@ -3073,22 +3106,22 @@
         <v>1000</v>
       </c>
       <c r="N34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O34" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q34" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R34">
         <v>121</v>
       </c>
       <c r="S34" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3102,16 +3135,16 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H35">
         <v>1.112</v>
@@ -3132,22 +3165,22 @@
         <v>1000</v>
       </c>
       <c r="N35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q35" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="R35">
         <v>131</v>
       </c>
       <c r="S35" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3161,16 +3194,16 @@
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H36">
         <v>0.9738</v>
@@ -3191,22 +3224,22 @@
         <v>93.38</v>
       </c>
       <c r="N36" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q36" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="R36">
         <v>145</v>
       </c>
       <c r="S36" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3220,16 +3253,16 @@
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H37">
         <v>1.093</v>
@@ -3250,22 +3283,22 @@
         <v>667</v>
       </c>
       <c r="N37" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O37" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q37" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="R37">
         <v>131</v>
       </c>
       <c r="S37" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3279,16 +3312,16 @@
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H38">
         <v>0.9669</v>
@@ -3309,22 +3342,22 @@
         <v>93.38</v>
       </c>
       <c r="N38" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O38" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q38" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="R38">
         <v>145</v>
       </c>
       <c r="S38" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3338,16 +3371,16 @@
         <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H39">
         <v>1.678</v>
@@ -3368,22 +3401,22 @@
         <v>1000</v>
       </c>
       <c r="N39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O39" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q39" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="R39">
         <v>512</v>
       </c>
       <c r="S39" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3397,16 +3430,16 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G40" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H40">
         <v>1.9367</v>
@@ -3427,22 +3460,22 @@
         <v>667</v>
       </c>
       <c r="N40" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q40" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R40">
         <v>121</v>
       </c>
       <c r="S40" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3456,16 +3489,16 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H41">
         <v>0.8232</v>
@@ -3486,22 +3519,22 @@
         <v>667</v>
       </c>
       <c r="N41" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O41" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q41" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="R41">
         <v>142</v>
       </c>
       <c r="S41" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3515,16 +3548,16 @@
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H42">
         <v>1.9291</v>
@@ -3545,22 +3578,22 @@
         <v>1000</v>
       </c>
       <c r="N42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O42" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q42" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R42">
         <v>121</v>
       </c>
       <c r="S42" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3574,16 +3607,16 @@
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H43">
         <v>1.054</v>
@@ -3604,22 +3637,22 @@
         <v>1000</v>
       </c>
       <c r="N43" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O43" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q43" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="R43">
         <v>131</v>
       </c>
       <c r="S43" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3633,16 +3666,16 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H44">
         <v>0.3355</v>
@@ -3663,22 +3696,22 @@
         <v>1000</v>
       </c>
       <c r="N44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O44" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P44" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q44" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R44">
         <v>613</v>
       </c>
       <c r="S44" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3692,16 +3725,16 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H45">
         <v>1.0894</v>
@@ -3722,22 +3755,22 @@
         <v>667</v>
       </c>
       <c r="N45" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O45" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P45" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q45" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="R45">
         <v>147</v>
       </c>
       <c r="S45" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3751,16 +3784,16 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H46">
         <v>1.0894</v>
@@ -3781,22 +3814,22 @@
         <v>1000</v>
       </c>
       <c r="N46" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O46" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P46" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q46" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="R46">
         <v>147</v>
       </c>
       <c r="S46" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3810,52 +3843,52 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H47">
-        <v>0.8646</v>
+        <v>0.984</v>
       </c>
       <c r="I47">
-        <v>0.8646</v>
+        <v>2.689</v>
       </c>
       <c r="J47">
-        <v>404.92</v>
+        <v>409.71</v>
       </c>
       <c r="K47">
-        <v>348.34</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>346.59</v>
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O47" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P47" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Q47" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="R47">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="S47" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3869,52 +3902,52 @@
         <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G48" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H48">
-        <v>0.7161999999999999</v>
+        <v>0.984</v>
       </c>
       <c r="I48">
-        <v>0.7161999999999999</v>
+        <v>2.689</v>
       </c>
       <c r="J48">
-        <v>1394.58</v>
+        <v>310.02</v>
       </c>
       <c r="K48">
-        <v>998.8</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O48" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P48" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q48" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="R48">
-        <v>613</v>
+        <v>131</v>
       </c>
       <c r="S48" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3925,55 +3958,55 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H49">
-        <v>2.1254</v>
+        <v>0.8646</v>
       </c>
       <c r="I49">
-        <v>2.1254</v>
+        <v>0.8646</v>
       </c>
       <c r="J49">
-        <v>400.63</v>
+        <v>404.92</v>
       </c>
       <c r="K49">
-        <v>847.24</v>
+        <v>348.34</v>
       </c>
       <c r="L49">
-        <v>4.26</v>
+        <v>1.75</v>
       </c>
       <c r="M49">
-        <v>842.98</v>
+        <v>346.59</v>
       </c>
       <c r="N49" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O49" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q49" t="s">
         <v>160</v>
       </c>
       <c r="R49">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="S49" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3984,19 +4017,19 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H50">
         <v>0.7161999999999999</v>
@@ -4005,34 +4038,34 @@
         <v>0.7161999999999999</v>
       </c>
       <c r="J50">
-        <v>930.1900000000001</v>
+        <v>1394.58</v>
       </c>
       <c r="K50">
-        <v>666.2</v>
+        <v>998.8</v>
       </c>
       <c r="L50">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M50">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="N50" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O50" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P50" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q50" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R50">
         <v>613</v>
       </c>
       <c r="S50" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4046,52 +4079,52 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H51">
-        <v>2.2795</v>
+        <v>2.1254</v>
       </c>
       <c r="I51">
-        <v>2.2795</v>
+        <v>2.1254</v>
       </c>
       <c r="J51">
-        <v>438.17</v>
+        <v>400.63</v>
       </c>
       <c r="K51">
-        <v>998.8</v>
+        <v>847.24</v>
       </c>
       <c r="L51">
-        <v>1.2</v>
+        <v>4.26</v>
       </c>
       <c r="M51">
-        <v>1000</v>
+        <v>842.98</v>
       </c>
       <c r="N51" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O51" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q51" t="s">
         <v>167</v>
       </c>
       <c r="R51">
-        <v>313</v>
+        <v>124</v>
       </c>
       <c r="S51" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4105,25 +4138,25 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G52" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H52">
-        <v>0.986</v>
+        <v>0.7161999999999999</v>
       </c>
       <c r="I52">
-        <v>0.986</v>
+        <v>0.7161999999999999</v>
       </c>
       <c r="J52">
-        <v>675.66</v>
+        <v>930.1900000000001</v>
       </c>
       <c r="K52">
         <v>666.2</v>
@@ -4135,22 +4168,22 @@
         <v>667</v>
       </c>
       <c r="N52" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O52" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P52" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q52" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="R52">
-        <v>321</v>
+        <v>613</v>
       </c>
       <c r="S52" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4164,52 +4197,52 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="G53" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H53">
-        <v>0.978</v>
+        <v>2.2795</v>
       </c>
       <c r="I53">
-        <v>0.978</v>
+        <v>2.2795</v>
       </c>
       <c r="J53">
-        <v>681.1900000000001</v>
+        <v>438.17</v>
       </c>
       <c r="K53">
-        <v>666.2</v>
+        <v>998.8</v>
       </c>
       <c r="L53">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M53">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="N53" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O53" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P53" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="Q53" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="R53">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="S53" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4223,25 +4256,25 @@
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H54">
-        <v>0.978</v>
+        <v>0.986</v>
       </c>
       <c r="I54">
-        <v>0.978</v>
+        <v>0.986</v>
       </c>
       <c r="J54">
-        <v>681.1900000000001</v>
+        <v>675.66</v>
       </c>
       <c r="K54">
         <v>666.2</v>
@@ -4253,22 +4286,22 @@
         <v>667</v>
       </c>
       <c r="N54" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O54" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P54" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q54" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R54">
         <v>321</v>
       </c>
       <c r="S54" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4279,28 +4312,28 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G55" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H55">
-        <v>0.649</v>
+        <v>0.978</v>
       </c>
       <c r="I55">
-        <v>0.649</v>
+        <v>0.978</v>
       </c>
       <c r="J55">
-        <v>1026.5</v>
+        <v>681.1900000000001</v>
       </c>
       <c r="K55">
         <v>666.2</v>
@@ -4312,22 +4345,22 @@
         <v>667</v>
       </c>
       <c r="N55" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O55" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Q55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R55">
-        <v>613</v>
+        <v>321</v>
       </c>
       <c r="S55" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4341,52 +4374,52 @@
         <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H56">
-        <v>1.1231</v>
+        <v>0.978</v>
       </c>
       <c r="I56">
-        <v>1.1231</v>
+        <v>0.978</v>
       </c>
       <c r="J56">
-        <v>736.3</v>
+        <v>681.1900000000001</v>
       </c>
       <c r="K56">
-        <v>822.8099999999999</v>
+        <v>666.2</v>
       </c>
       <c r="L56">
-        <v>4.13</v>
+        <v>0.8</v>
       </c>
       <c r="M56">
-        <v>818.6799999999999</v>
+        <v>667</v>
       </c>
       <c r="N56" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O56" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P56" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R56">
-        <v>124</v>
+        <v>321</v>
       </c>
       <c r="S56" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4397,55 +4430,55 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H57">
-        <v>1.3007</v>
+        <v>0.649</v>
       </c>
       <c r="I57">
-        <v>1.3007</v>
+        <v>0.649</v>
       </c>
       <c r="J57">
-        <v>917.24</v>
+        <v>1026.5</v>
       </c>
       <c r="K57">
-        <v>1191.86</v>
+        <v>666.2</v>
       </c>
       <c r="L57">
-        <v>1.19</v>
+        <v>0.8</v>
       </c>
       <c r="M57">
-        <v>1190.67</v>
+        <v>667</v>
       </c>
       <c r="N57" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O57" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P57" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q57" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="R57">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="S57" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4459,7 +4492,7 @@
         <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
         <v>104</v>
@@ -4468,43 +4501,43 @@
         <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H58">
-        <v>1.3592</v>
+        <v>1.1231</v>
       </c>
       <c r="I58">
-        <v>1.3592</v>
+        <v>1.1231</v>
       </c>
       <c r="J58">
-        <v>734.84</v>
+        <v>736.3</v>
       </c>
       <c r="K58">
-        <v>998.8</v>
+        <v>822.8099999999999</v>
       </c>
       <c r="L58">
-        <v>1.2</v>
+        <v>4.13</v>
       </c>
       <c r="M58">
-        <v>1000</v>
+        <v>818.6799999999999</v>
       </c>
       <c r="N58" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O58" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q58" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="R58">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="S58" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4515,55 +4548,55 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H59">
-        <v>0.913</v>
+        <v>1.3007</v>
       </c>
       <c r="I59">
-        <v>0.913</v>
+        <v>1.3007</v>
       </c>
       <c r="J59">
-        <v>1093.98</v>
+        <v>917.24</v>
       </c>
       <c r="K59">
-        <v>998.8</v>
+        <v>1191.86</v>
       </c>
       <c r="L59">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M59">
-        <v>1000</v>
+        <v>1190.67</v>
       </c>
       <c r="N59" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O59" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P59" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q59" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="R59">
-        <v>321</v>
+        <v>611</v>
       </c>
       <c r="S59" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4574,19 +4607,19 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H60">
         <v>1.3592</v>
@@ -4595,34 +4628,34 @@
         <v>1.3592</v>
       </c>
       <c r="J60">
-        <v>490.14</v>
+        <v>734.84</v>
       </c>
       <c r="K60">
-        <v>666.2</v>
+        <v>998.8</v>
       </c>
       <c r="L60">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M60">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="N60" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O60" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P60" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q60" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="R60">
         <v>211</v>
       </c>
       <c r="S60" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4633,19 +4666,19 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G61" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H61">
         <v>0.913</v>
@@ -4654,34 +4687,34 @@
         <v>0.913</v>
       </c>
       <c r="J61">
-        <v>729.6799999999999</v>
+        <v>1093.98</v>
       </c>
       <c r="K61">
-        <v>666.2</v>
+        <v>998.8</v>
       </c>
       <c r="L61">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M61">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="N61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O61" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q61" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R61">
         <v>321</v>
       </c>
       <c r="S61" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4695,25 +4728,25 @@
         <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H62">
-        <v>0.867</v>
+        <v>1.3592</v>
       </c>
       <c r="I62">
-        <v>0.867</v>
+        <v>1.3592</v>
       </c>
       <c r="J62">
-        <v>768.4</v>
+        <v>490.14</v>
       </c>
       <c r="K62">
         <v>666.2</v>
@@ -4725,22 +4758,22 @@
         <v>667</v>
       </c>
       <c r="N62" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O62" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="P62" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Q62" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="R62">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="S62" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4751,28 +4784,28 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H63">
-        <v>1.2474</v>
+        <v>0.913</v>
       </c>
       <c r="I63">
-        <v>1.2474</v>
+        <v>0.913</v>
       </c>
       <c r="J63">
-        <v>534.0700000000001</v>
+        <v>729.6799999999999</v>
       </c>
       <c r="K63">
         <v>666.2</v>
@@ -4784,22 +4817,22 @@
         <v>667</v>
       </c>
       <c r="N63" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O63" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q63" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R63">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="S63" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4813,25 +4846,25 @@
         <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G64" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H64">
-        <v>1.9434</v>
+        <v>0.867</v>
       </c>
       <c r="I64">
-        <v>1.9434</v>
+        <v>0.867</v>
       </c>
       <c r="J64">
-        <v>342.8</v>
+        <v>768.4</v>
       </c>
       <c r="K64">
         <v>666.2</v>
@@ -4843,22 +4876,22 @@
         <v>667</v>
       </c>
       <c r="N64" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O64" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q64" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="R64">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="S64" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4872,52 +4905,52 @@
         <v>46</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H65">
-        <v>1.0286</v>
+        <v>1.2474</v>
       </c>
       <c r="I65">
-        <v>1.0286</v>
+        <v>1.2474</v>
       </c>
       <c r="J65">
-        <v>971.03</v>
+        <v>534.0700000000001</v>
       </c>
       <c r="K65">
-        <v>998.8</v>
+        <v>666.2</v>
       </c>
       <c r="L65">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="M65">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="N65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O65" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P65" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="R65">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="S65" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4931,52 +4964,52 @@
         <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H66">
-        <v>0.972</v>
+        <v>1.9434</v>
       </c>
       <c r="I66">
-        <v>0.972</v>
+        <v>1.9434</v>
       </c>
       <c r="J66">
-        <v>685.1900000000001</v>
+        <v>342.8</v>
       </c>
       <c r="K66">
-        <v>666</v>
+        <v>666.2</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M66">
         <v>667</v>
       </c>
       <c r="N66" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O66" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P66" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q66" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="R66">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="S66" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4990,52 +5023,52 @@
         <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H67">
-        <v>2.3877</v>
+        <v>0.7161999999999999</v>
       </c>
       <c r="I67">
-        <v>2.3877</v>
+        <v>0.7161999999999999</v>
       </c>
       <c r="J67">
-        <v>342.8</v>
+        <v>930.1900000000001</v>
       </c>
       <c r="K67">
-        <v>814.41</v>
+        <v>666.2</v>
       </c>
       <c r="L67">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>810.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O67" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P67" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q67" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R67">
-        <v>313</v>
+        <v>613</v>
       </c>
       <c r="S67" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5046,55 +5079,55 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G68" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H68">
-        <v>1.216</v>
+        <v>0.7161999999999999</v>
       </c>
       <c r="I68">
-        <v>1.216</v>
+        <v>0.7161999999999999</v>
       </c>
       <c r="J68">
-        <v>548.08</v>
+        <v>1394.58</v>
       </c>
       <c r="K68">
-        <v>666.47</v>
+        <v>998.8</v>
       </c>
       <c r="L68">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O68" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P68" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q68" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R68">
-        <v>511</v>
+        <v>613</v>
       </c>
       <c r="S68" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5105,55 +5138,350 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D69" t="s">
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G69" t="s">
+        <v>138</v>
+      </c>
+      <c r="H69">
+        <v>1.0286</v>
+      </c>
+      <c r="I69">
+        <v>1.0286</v>
+      </c>
+      <c r="J69">
+        <v>971.03</v>
+      </c>
+      <c r="K69">
+        <v>998.8</v>
+      </c>
+      <c r="L69">
+        <v>1.2</v>
+      </c>
+      <c r="M69">
+        <v>1000</v>
+      </c>
+      <c r="N69" t="s">
+        <v>141</v>
+      </c>
+      <c r="O69" t="s">
+        <v>146</v>
+      </c>
+      <c r="P69" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>173</v>
+      </c>
+      <c r="R69">
+        <v>147</v>
+      </c>
+      <c r="S69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70">
+        <v>0.972</v>
+      </c>
+      <c r="I70">
+        <v>0.972</v>
+      </c>
+      <c r="J70">
+        <v>685.1900000000001</v>
+      </c>
+      <c r="K70">
+        <v>666</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>667</v>
+      </c>
+      <c r="N70" t="s">
+        <v>141</v>
+      </c>
+      <c r="O70" t="s">
+        <v>146</v>
+      </c>
+      <c r="P70" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>165</v>
+      </c>
+      <c r="R70">
+        <v>131</v>
+      </c>
+      <c r="S70" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
       </c>
-      <c r="H69">
+      <c r="G71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71">
+        <v>2.3877</v>
+      </c>
+      <c r="I71">
+        <v>2.3877</v>
+      </c>
+      <c r="J71">
+        <v>342.8</v>
+      </c>
+      <c r="K71">
+        <v>814.41</v>
+      </c>
+      <c r="L71">
+        <v>4.09</v>
+      </c>
+      <c r="M71">
+        <v>810.3200000000001</v>
+      </c>
+      <c r="N71" t="s">
+        <v>141</v>
+      </c>
+      <c r="O71" t="s">
+        <v>144</v>
+      </c>
+      <c r="P71" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>174</v>
+      </c>
+      <c r="R71">
+        <v>313</v>
+      </c>
+      <c r="S71" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72">
+        <v>1.216</v>
+      </c>
+      <c r="I72">
+        <v>1.216</v>
+      </c>
+      <c r="J72">
+        <v>548.08</v>
+      </c>
+      <c r="K72">
+        <v>666.47</v>
+      </c>
+      <c r="L72">
+        <v>0.53</v>
+      </c>
+      <c r="M72">
+        <v>667</v>
+      </c>
+      <c r="N72" t="s">
+        <v>141</v>
+      </c>
+      <c r="O72" t="s">
+        <v>148</v>
+      </c>
+      <c r="P72" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>175</v>
+      </c>
+      <c r="R72">
+        <v>511</v>
+      </c>
+      <c r="S72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" t="s">
+        <v>139</v>
+      </c>
+      <c r="H73">
+        <v>1.19</v>
+      </c>
+      <c r="I73">
+        <v>1.451</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="N73" t="s">
+        <v>142</v>
+      </c>
+      <c r="O73" t="s">
+        <v>148</v>
+      </c>
+      <c r="P73" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>175</v>
+      </c>
+      <c r="R73">
+        <v>511</v>
+      </c>
+      <c r="S73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74">
         <v>1.765</v>
       </c>
-      <c r="I69">
+      <c r="I74">
         <v>1.765</v>
       </c>
-      <c r="J69">
+      <c r="J74">
         <v>296.95</v>
       </c>
-      <c r="K69">
+      <c r="K74">
         <v>521.5</v>
       </c>
-      <c r="L69">
+      <c r="L74">
         <v>2.62</v>
       </c>
-      <c r="M69">
+      <c r="M74">
         <v>518.88</v>
       </c>
-      <c r="N69" t="s">
-        <v>136</v>
-      </c>
-      <c r="O69" t="s">
-        <v>140</v>
-      </c>
-      <c r="P69" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>157</v>
-      </c>
-      <c r="R69">
+      <c r="N74" t="s">
+        <v>141</v>
+      </c>
+      <c r="O74" t="s">
+        <v>147</v>
+      </c>
+      <c r="P74" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>164</v>
+      </c>
+      <c r="R74">
         <v>221</v>
       </c>
-      <c r="S69" t="s">
-        <v>236</v>
+      <c r="S74" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
